--- a/src/renderer/src/data/全国UV段模拟中继（BD8FTD维护）.xlsx
+++ b/src/renderer/src/data/全国UV段模拟中继（BD8FTD维护）.xlsx
@@ -5458,7 +5458,7 @@
     <t>应急救援中继</t>
   </si>
   <si>
-    <t>成都车友中继</t>
+    <t>A成都车友中继</t>
   </si>
   <si>
     <t>成都高山中继</t>
@@ -6447,11 +6447,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -6505,8 +6505,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6520,68 +6521,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6611,9 +6558,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6634,6 +6587,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -6650,7 +6650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6662,19 +6662,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6692,19 +6710,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6716,37 +6794,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6764,73 +6830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6917,60 +6917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7004,6 +6950,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -7014,16 +6975,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7032,133 +7032,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7555,9 +7555,9 @@
   <dimension ref="A1:L2343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2038" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2061" sqref="B2061"/>
+      <selection pane="bottomLeft" activeCell="E2043" sqref="E2043"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -76007,7 +76007,7 @@
       </c>
       <c r="F2003" s="12">
         <f t="shared" si="31"/>
-        <v>-7.19999999999999</v>
+        <v>-7.20000000000005</v>
       </c>
       <c r="G2003" s="22"/>
       <c r="H2003" s="22">
@@ -77239,7 +77239,7 @@
       </c>
       <c r="F2039" s="12">
         <f t="shared" si="31"/>
-        <v>-3.69999999999999</v>
+        <v>-3.70000000000002</v>
       </c>
       <c r="G2039" s="22"/>
       <c r="H2039" s="22">
@@ -77273,7 +77273,7 @@
       </c>
       <c r="F2040" s="12">
         <f t="shared" si="31"/>
-        <v>-3.90000000000001</v>
+        <v>-3.89999999999998</v>
       </c>
       <c r="G2040" s="22">
         <v>88.5</v>
@@ -77372,14 +77372,14 @@
         <v>12</v>
       </c>
       <c r="D2043" s="15">
-        <v>431.35</v>
+        <v>439.45</v>
       </c>
       <c r="E2043" s="21">
-        <v>439.45</v>
+        <v>431.45</v>
       </c>
       <c r="F2043" s="12">
         <f t="shared" si="31"/>
-        <v>8.10000000000002</v>
+        <v>-8</v>
       </c>
       <c r="G2043" s="22"/>
       <c r="H2043" s="22">
